--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -625,9 +625,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -752,7 +752,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -761,7 +761,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -769,15 +769,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,7 +789,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,31 +797,31 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,15 +829,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,11 +841,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,10 +1032,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D1015"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1269,37 +1265,2997 @@
       <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="6"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="6"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="6"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="6"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="6"/>
       <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="6"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="6"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="6"/>
       <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="6"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="6"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="6"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="6"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="6"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="6"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="6"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="6"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="6"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="6"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="6"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="6"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="6"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="6"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="6"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="6"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="6"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="6"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="6"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="6"/>
+    </row>
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="6"/>
+    </row>
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="6"/>
+    </row>
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="6"/>
+    </row>
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="6"/>
+    </row>
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="6"/>
+    </row>
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="6"/>
+    </row>
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="6"/>
+    </row>
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="6"/>
+    </row>
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="6"/>
+    </row>
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="6"/>
+    </row>
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="6"/>
+    </row>
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="6"/>
+    </row>
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="6"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="6"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="6"/>
+    </row>
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="6"/>
+    </row>
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="6"/>
+    </row>
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="6"/>
+    </row>
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="6"/>
+    </row>
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="6"/>
+    </row>
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="6"/>
+    </row>
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="6"/>
+    </row>
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="6"/>
+    </row>
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="6"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="6"/>
+    </row>
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="6"/>
+    </row>
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="6"/>
+    </row>
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="6"/>
+    </row>
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="6"/>
+    </row>
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="6"/>
+    </row>
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="6"/>
+    </row>
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="6"/>
+    </row>
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="6"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="6"/>
+    </row>
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="6"/>
+    </row>
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="6"/>
+    </row>
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="6"/>
+    </row>
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="6"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="6"/>
+    </row>
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="6"/>
+    </row>
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="6"/>
+    </row>
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="6"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="6"/>
+    </row>
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="6"/>
+    </row>
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="6"/>
+    </row>
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="6"/>
+    </row>
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="6"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="6"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="6"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="6"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="6"/>
+    </row>
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="6"/>
+    </row>
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="6"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="6"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="6"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="6"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="6"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="6"/>
+    </row>
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="6"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="6"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="6"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="6"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="6"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="6"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="6"/>
+    </row>
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="6"/>
+    </row>
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="6"/>
+    </row>
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="6"/>
+    </row>
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="6"/>
+    </row>
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="6"/>
+    </row>
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="6"/>
+    </row>
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="6"/>
+    </row>
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="6"/>
+    </row>
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="6"/>
+    </row>
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="6"/>
+    </row>
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="6"/>
+    </row>
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="6"/>
+    </row>
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="6"/>
+    </row>
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="6"/>
+    </row>
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="6"/>
+    </row>
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="6"/>
+    </row>
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="6"/>
+    </row>
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="6"/>
+    </row>
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="6"/>
+    </row>
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="6"/>
+    </row>
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="6"/>
+    </row>
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="6"/>
+    </row>
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="6"/>
+    </row>
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="6"/>
+    </row>
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="6"/>
+    </row>
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="6"/>
+    </row>
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="6"/>
+    </row>
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="6"/>
+    </row>
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="6"/>
+    </row>
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="6"/>
+    </row>
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="6"/>
+    </row>
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="6"/>
+    </row>
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="6"/>
+    </row>
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="6"/>
+    </row>
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="6"/>
+    </row>
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="6"/>
+    </row>
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="6"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="6"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="6"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="6"/>
+    </row>
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="6"/>
+    </row>
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="6"/>
+    </row>
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="6"/>
+    </row>
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="6"/>
+    </row>
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="6"/>
+    </row>
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="6"/>
+    </row>
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="6"/>
+    </row>
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="6"/>
+    </row>
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="6"/>
+    </row>
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="6"/>
+    </row>
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="6"/>
+    </row>
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="6"/>
+    </row>
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="6"/>
+    </row>
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="6"/>
+    </row>
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="6"/>
+    </row>
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="6"/>
+    </row>
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="6"/>
+    </row>
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="6"/>
+    </row>
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="6"/>
+    </row>
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="6"/>
+    </row>
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="6"/>
+    </row>
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="6"/>
+    </row>
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="6"/>
+    </row>
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="6"/>
+    </row>
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="6"/>
+    </row>
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="6"/>
+    </row>
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="6"/>
+    </row>
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="6"/>
+    </row>
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="6"/>
+    </row>
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="6"/>
+    </row>
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="6"/>
+    </row>
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="6"/>
+    </row>
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="6"/>
+    </row>
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="6"/>
+    </row>
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="6"/>
+    </row>
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="6"/>
+    </row>
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="6"/>
+    </row>
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="6"/>
+    </row>
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="6"/>
+    </row>
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="6"/>
+    </row>
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="6"/>
+    </row>
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="6"/>
+    </row>
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="6"/>
+    </row>
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="6"/>
+    </row>
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="6"/>
+    </row>
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="6"/>
+    </row>
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="6"/>
+    </row>
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="6"/>
+    </row>
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="6"/>
+    </row>
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="6"/>
+    </row>
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="6"/>
+    </row>
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="6"/>
+    </row>
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="6"/>
+    </row>
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="6"/>
+    </row>
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="6"/>
+    </row>
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="6"/>
+    </row>
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="6"/>
+    </row>
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="6"/>
+    </row>
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="6"/>
+    </row>
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="6"/>
+    </row>
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="6"/>
+    </row>
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="6"/>
+    </row>
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="6"/>
+    </row>
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="6"/>
+    </row>
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="6"/>
+    </row>
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="6"/>
+    </row>
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="6"/>
+    </row>
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="6"/>
+    </row>
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="6"/>
+    </row>
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="6"/>
+    </row>
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="6"/>
+    </row>
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="6"/>
+    </row>
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="6"/>
+    </row>
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="6"/>
+    </row>
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="6"/>
+    </row>
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="6"/>
+    </row>
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="6"/>
+    </row>
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="6"/>
+    </row>
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="6"/>
+    </row>
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="6"/>
+    </row>
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="6"/>
+    </row>
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="6"/>
+    </row>
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="6"/>
+    </row>
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="6"/>
+    </row>
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="6"/>
+    </row>
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="6"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="6"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="6"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="6"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="6"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="6"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="6"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="6"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="6"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="6"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="6"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="6"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="6"/>
+    </row>
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="6"/>
+    </row>
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="6"/>
+    </row>
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="6"/>
+    </row>
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="6"/>
+    </row>
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="6"/>
+    </row>
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="6"/>
+    </row>
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="6"/>
+    </row>
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="6"/>
+    </row>
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="6"/>
+    </row>
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="6"/>
+    </row>
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="6"/>
+    </row>
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="6"/>
+    </row>
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="6"/>
+    </row>
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="6"/>
+    </row>
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="6"/>
+    </row>
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="6"/>
+    </row>
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="6"/>
+    </row>
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="6"/>
+    </row>
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="6"/>
+    </row>
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="6"/>
+    </row>
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="6"/>
+    </row>
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="6"/>
+    </row>
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="6"/>
+    </row>
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="6"/>
+    </row>
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="6"/>
+    </row>
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="6"/>
+    </row>
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="6"/>
+    </row>
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="6"/>
+    </row>
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="6"/>
+    </row>
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="6"/>
+    </row>
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="6"/>
+    </row>
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="6"/>
+    </row>
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="6"/>
+    </row>
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="6"/>
+    </row>
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="6"/>
+    </row>
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="6"/>
+    </row>
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="6"/>
+    </row>
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="6"/>
+    </row>
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="6"/>
+    </row>
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="6"/>
+    </row>
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="6"/>
+    </row>
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="6"/>
+    </row>
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="6"/>
+    </row>
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="6"/>
+    </row>
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="6"/>
+    </row>
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="6"/>
+    </row>
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="6"/>
+    </row>
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="6"/>
+    </row>
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="6"/>
+    </row>
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="6"/>
+    </row>
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="6"/>
+    </row>
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="6"/>
+    </row>
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="6"/>
+    </row>
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="6"/>
+    </row>
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="6"/>
+    </row>
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="6"/>
+    </row>
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="6"/>
+    </row>
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="6"/>
+    </row>
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="6"/>
+    </row>
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="6"/>
+    </row>
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="6"/>
+    </row>
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="6"/>
+    </row>
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="6"/>
+    </row>
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="6"/>
+    </row>
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="6"/>
+    </row>
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="6"/>
+    </row>
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="6"/>
+    </row>
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="6"/>
+    </row>
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="6"/>
+    </row>
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="6"/>
+    </row>
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="6"/>
+    </row>
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="6"/>
+    </row>
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="6"/>
+    </row>
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="6"/>
+    </row>
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="6"/>
+    </row>
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="6"/>
+    </row>
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="6"/>
+    </row>
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="6"/>
+    </row>
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="6"/>
+    </row>
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="6"/>
+    </row>
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="6"/>
+    </row>
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="6"/>
+    </row>
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="6"/>
+    </row>
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="6"/>
+    </row>
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="6"/>
+    </row>
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="6"/>
+    </row>
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="6"/>
+    </row>
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="6"/>
+    </row>
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="6"/>
+    </row>
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="6"/>
+    </row>
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="6"/>
+    </row>
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="6"/>
+    </row>
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="6"/>
+    </row>
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="6"/>
+    </row>
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="6"/>
+    </row>
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="6"/>
+    </row>
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="6"/>
+    </row>
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="6"/>
+    </row>
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="6"/>
+    </row>
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="6"/>
+    </row>
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="6"/>
+    </row>
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="6"/>
+    </row>
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="6"/>
+    </row>
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="6"/>
+    </row>
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="6"/>
+    </row>
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="6"/>
+    </row>
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="6"/>
+    </row>
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="6"/>
+    </row>
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="6"/>
+    </row>
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="6"/>
+    </row>
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="6"/>
+    </row>
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="6"/>
+    </row>
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="6"/>
+    </row>
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="6"/>
+    </row>
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="6"/>
+    </row>
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="6"/>
+    </row>
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="6"/>
+    </row>
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="6"/>
+    </row>
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="6"/>
+    </row>
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="6"/>
+    </row>
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="6"/>
+    </row>
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="6"/>
+    </row>
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="6"/>
+    </row>
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="6"/>
+    </row>
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="6"/>
+    </row>
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="6"/>
+    </row>
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="6"/>
+    </row>
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="6"/>
+    </row>
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="6"/>
+    </row>
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="6"/>
+    </row>
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="6"/>
+    </row>
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="6"/>
+    </row>
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="6"/>
+    </row>
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="6"/>
+    </row>
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="6"/>
+    </row>
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="6"/>
+    </row>
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="6"/>
+    </row>
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="6"/>
+    </row>
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="6"/>
+    </row>
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="6"/>
+    </row>
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="6"/>
+    </row>
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="6"/>
+    </row>
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="6"/>
+    </row>
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="6"/>
+    </row>
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="6"/>
+    </row>
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="6"/>
+    </row>
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="6"/>
+    </row>
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="6"/>
+    </row>
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="6"/>
+    </row>
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="6"/>
+    </row>
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="6"/>
+    </row>
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="6"/>
+    </row>
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="6"/>
+    </row>
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="6"/>
+    </row>
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="6"/>
+    </row>
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="6"/>
+    </row>
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="6"/>
+    </row>
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="6"/>
+    </row>
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="6"/>
+    </row>
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="6"/>
+    </row>
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="6"/>
+    </row>
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="6"/>
+    </row>
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="6"/>
+    </row>
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="6"/>
+    </row>
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="6"/>
+    </row>
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="6"/>
+    </row>
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="6"/>
+    </row>
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="6"/>
+    </row>
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="6"/>
+    </row>
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="6"/>
+    </row>
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="6"/>
+    </row>
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="6"/>
+    </row>
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="6"/>
+    </row>
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="6"/>
+    </row>
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="6"/>
+    </row>
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="6"/>
+    </row>
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="6"/>
+    </row>
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="6"/>
+    </row>
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="6"/>
+    </row>
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="6"/>
+    </row>
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="6"/>
+    </row>
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="6"/>
+    </row>
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="6"/>
+    </row>
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="6"/>
+    </row>
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="6"/>
+    </row>
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="6"/>
+    </row>
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="6"/>
+    </row>
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="6"/>
+    </row>
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="6"/>
+    </row>
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="6"/>
+    </row>
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="6"/>
+    </row>
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="6"/>
+    </row>
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="6"/>
+    </row>
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="6"/>
+    </row>
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="6"/>
+    </row>
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="6"/>
+    </row>
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="6"/>
+    </row>
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="6"/>
+    </row>
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="6"/>
+    </row>
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="6"/>
+    </row>
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="6"/>
+    </row>
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="6"/>
+    </row>
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="6"/>
+    </row>
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="6"/>
+    </row>
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="6"/>
+    </row>
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="6"/>
+    </row>
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="6"/>
+    </row>
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="6"/>
+    </row>
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="6"/>
+    </row>
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="6"/>
+    </row>
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="6"/>
+    </row>
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="6"/>
+    </row>
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="6"/>
+    </row>
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="6"/>
+    </row>
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="6"/>
+    </row>
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="6"/>
+    </row>
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="6"/>
+    </row>
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="6"/>
+    </row>
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="6"/>
+    </row>
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="6"/>
+    </row>
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="6"/>
+    </row>
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="6"/>
+    </row>
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="6"/>
+    </row>
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="6"/>
+    </row>
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="6"/>
+    </row>
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="6"/>
+    </row>
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="6"/>
+    </row>
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="6"/>
+    </row>
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="6"/>
+    </row>
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="6"/>
+    </row>
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="6"/>
+    </row>
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="6"/>
+    </row>
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="6"/>
+    </row>
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="6"/>
+    </row>
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="6"/>
+    </row>
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="6"/>
+    </row>
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="6"/>
+    </row>
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="6"/>
+    </row>
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="6"/>
+    </row>
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="6"/>
+    </row>
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="6"/>
+    </row>
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="6"/>
+    </row>
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="6"/>
+    </row>
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="6"/>
+    </row>
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="6"/>
+    </row>
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="6"/>
+    </row>
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="6"/>
+    </row>
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="6"/>
+    </row>
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="6"/>
+    </row>
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="6"/>
+    </row>
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="6"/>
+    </row>
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="6"/>
+    </row>
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="6"/>
+    </row>
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="6"/>
+    </row>
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="6"/>
+    </row>
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="6"/>
+    </row>
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="6"/>
+    </row>
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="6"/>
+    </row>
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="6"/>
+    </row>
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="6"/>
+    </row>
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="6"/>
+    </row>
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="6"/>
+    </row>
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="6"/>
+    </row>
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="6"/>
+    </row>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="6"/>
+    </row>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="6"/>
+    </row>
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="6"/>
+    </row>
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="6"/>
+    </row>
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="6"/>
+    </row>
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="6"/>
+    </row>
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="6"/>
+    </row>
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="6"/>
+    </row>
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="6"/>
+    </row>
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="6"/>
+    </row>
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="6"/>
+    </row>
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="6"/>
+    </row>
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="6"/>
+    </row>
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="6"/>
+    </row>
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C821" s="6"/>
+    </row>
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C822" s="6"/>
+    </row>
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="6"/>
+    </row>
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="6"/>
+    </row>
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="6"/>
+    </row>
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C826" s="6"/>
+    </row>
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C827" s="6"/>
+    </row>
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C828" s="6"/>
+    </row>
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="6"/>
+    </row>
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="6"/>
+    </row>
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C831" s="6"/>
+    </row>
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C832" s="6"/>
+    </row>
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C833" s="6"/>
+    </row>
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C834" s="6"/>
+    </row>
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C835" s="6"/>
+    </row>
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C836" s="6"/>
+    </row>
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C837" s="6"/>
+    </row>
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C838" s="6"/>
+    </row>
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C839" s="6"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C840" s="6"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C841" s="6"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C842" s="6"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C843" s="6"/>
+    </row>
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C844" s="6"/>
+    </row>
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C845" s="6"/>
+    </row>
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C846" s="6"/>
+    </row>
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C847" s="6"/>
+    </row>
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C848" s="6"/>
+    </row>
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="6"/>
+    </row>
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C850" s="6"/>
+    </row>
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C851" s="6"/>
+    </row>
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="6"/>
+    </row>
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="6"/>
+    </row>
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C854" s="6"/>
+    </row>
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C855" s="6"/>
+    </row>
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="6"/>
+    </row>
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="6"/>
+    </row>
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C858" s="6"/>
+    </row>
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C859" s="6"/>
+    </row>
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="6"/>
+    </row>
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="6"/>
+    </row>
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="6"/>
+    </row>
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="6"/>
+    </row>
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="6"/>
+    </row>
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="6"/>
+    </row>
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="6"/>
+    </row>
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="6"/>
+    </row>
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C868" s="6"/>
+    </row>
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C869" s="6"/>
+    </row>
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C870" s="6"/>
+    </row>
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C871" s="6"/>
+    </row>
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C872" s="6"/>
+    </row>
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C873" s="6"/>
+    </row>
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C874" s="6"/>
+    </row>
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C875" s="6"/>
+    </row>
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C876" s="6"/>
+    </row>
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="6"/>
+    </row>
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C878" s="6"/>
+    </row>
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C879" s="6"/>
+    </row>
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="6"/>
+    </row>
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C881" s="6"/>
+    </row>
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C882" s="6"/>
+    </row>
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C883" s="6"/>
+    </row>
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C884" s="6"/>
+    </row>
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C885" s="6"/>
+    </row>
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C886" s="6"/>
+    </row>
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="6"/>
+    </row>
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C888" s="6"/>
+    </row>
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C889" s="6"/>
+    </row>
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="6"/>
+    </row>
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="6"/>
+    </row>
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C892" s="6"/>
+    </row>
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C893" s="6"/>
+    </row>
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C894" s="6"/>
+    </row>
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C895" s="6"/>
+    </row>
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="6"/>
+    </row>
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C897" s="6"/>
+    </row>
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C898" s="6"/>
+    </row>
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="6"/>
+    </row>
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="6"/>
+    </row>
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="6"/>
+    </row>
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="6"/>
+    </row>
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="6"/>
+    </row>
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="6"/>
+    </row>
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="6"/>
+    </row>
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C906" s="6"/>
+    </row>
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="6"/>
+    </row>
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="6"/>
+    </row>
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="6"/>
+    </row>
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="6"/>
+    </row>
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="6"/>
+    </row>
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="6"/>
+    </row>
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="6"/>
+    </row>
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C914" s="6"/>
+    </row>
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="6"/>
+    </row>
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C916" s="6"/>
+    </row>
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C917" s="6"/>
+    </row>
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="6"/>
+    </row>
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C919" s="6"/>
+    </row>
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C920" s="6"/>
+    </row>
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="6"/>
+    </row>
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C922" s="6"/>
+    </row>
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C923" s="6"/>
+    </row>
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="6"/>
+    </row>
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="6"/>
+    </row>
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="6"/>
+    </row>
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="6"/>
+    </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="6"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="6"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C930" s="6"/>
+    </row>
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C931" s="6"/>
+    </row>
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="6"/>
+    </row>
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="6"/>
+    </row>
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="6"/>
+    </row>
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="6"/>
+    </row>
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="6"/>
+    </row>
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="6"/>
+    </row>
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="6"/>
+    </row>
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="6"/>
+    </row>
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="6"/>
+    </row>
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="6"/>
+    </row>
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="6"/>
+    </row>
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="6"/>
+    </row>
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="6"/>
+    </row>
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="6"/>
+    </row>
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="6"/>
+    </row>
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C947" s="6"/>
+    </row>
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="6"/>
+    </row>
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="6"/>
+    </row>
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C950" s="6"/>
+    </row>
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="6"/>
+    </row>
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="6"/>
+    </row>
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C953" s="6"/>
+    </row>
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C954" s="6"/>
+    </row>
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="6"/>
+    </row>
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="6"/>
+    </row>
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C957" s="6"/>
+    </row>
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="6"/>
+    </row>
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="6"/>
+    </row>
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C960" s="6"/>
+    </row>
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="6"/>
+    </row>
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="6"/>
+    </row>
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C963" s="6"/>
+    </row>
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="6"/>
+    </row>
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="6"/>
+    </row>
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="6"/>
+    </row>
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="6"/>
+    </row>
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C968" s="6"/>
+    </row>
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="6"/>
+    </row>
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="6"/>
+    </row>
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="6"/>
+    </row>
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C972" s="6"/>
+    </row>
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C973" s="6"/>
+    </row>
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="6"/>
+    </row>
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="6"/>
+    </row>
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C976" s="6"/>
+    </row>
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="6"/>
+    </row>
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="6"/>
+    </row>
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="6"/>
+    </row>
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="6"/>
+    </row>
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="6"/>
+    </row>
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="6"/>
+    </row>
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="6"/>
+    </row>
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="6"/>
+    </row>
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="6"/>
+    </row>
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="6"/>
+    </row>
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="6"/>
+    </row>
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C988" s="6"/>
+    </row>
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="6"/>
+    </row>
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="6"/>
+    </row>
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="6"/>
+    </row>
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="6"/>
+    </row>
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="6"/>
+    </row>
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="6"/>
+    </row>
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C995" s="6"/>
+    </row>
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="6"/>
+    </row>
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C997" s="6"/>
+    </row>
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="6"/>
+    </row>
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C999" s="6"/>
+    </row>
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="6"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1001" s="6"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1002" s="6"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1003" s="6"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1004" s="6"/>
+    </row>
+    <row r="1005" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1005" s="6"/>
+    </row>
+    <row r="1006" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1006" s="6"/>
+    </row>
+    <row r="1007" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1007" s="6"/>
+    </row>
+    <row r="1008" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1008" s="6"/>
+    </row>
+    <row r="1009" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1009" s="6"/>
+    </row>
+    <row r="1010" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1010" s="6"/>
+    </row>
+    <row r="1011" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1011" s="6"/>
+    </row>
+    <row r="1012" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1012" s="6"/>
+    </row>
+    <row r="1013" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1013" s="6"/>
+    </row>
+    <row r="1014" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1014" s="6"/>
+    </row>
+    <row r="1015" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1015" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1320,16 +4276,16 @@
   </sheetPr>
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +4310,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -1373,7 +4329,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -1582,7 +4538,7 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C14" s="1" t="n">
@@ -1601,7 +4557,7 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="1" t="n">
@@ -1810,7 +4766,7 @@
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="1" t="n">
@@ -1829,7 +4785,7 @@
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="1" t="n">
@@ -2036,7 +4992,7 @@
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="1" t="n">
@@ -2054,7 +5010,7 @@
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="1" t="n">
@@ -2252,7 +5208,7 @@
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C50" s="1" t="n">
@@ -2270,7 +5226,7 @@
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="1" t="n">
@@ -2472,7 +5428,7 @@
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="1" t="n">
@@ -2490,7 +5446,7 @@
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="1" t="n">
@@ -2688,7 +5644,7 @@
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C74" s="1" t="n">
@@ -2706,7 +5662,7 @@
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C75" s="1" t="n">
@@ -2904,7 +5860,7 @@
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C86" s="1" t="n">
@@ -2922,7 +5878,7 @@
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C87" s="1" t="n">
@@ -3120,7 +6076,7 @@
       <c r="A98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C98" s="1" t="n">
@@ -3138,7 +6094,7 @@
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C99" s="1" t="n">
@@ -3336,7 +6292,7 @@
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C110" s="1" t="n">
@@ -3354,7 +6310,7 @@
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C111" s="1" t="n">
@@ -3552,7 +6508,7 @@
       <c r="A122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="22" t="s">
+      <c r="B122" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="1" t="n">
@@ -3570,7 +6526,7 @@
       <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="22" t="s">
+      <c r="B123" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C123" s="1" t="n">
@@ -3768,7 +6724,7 @@
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C134" s="1" t="n">
@@ -3786,7 +6742,7 @@
       <c r="A135" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C135" s="1" t="n">
@@ -3992,7 +6948,7 @@
       <c r="A146" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C146" s="1" t="n">
@@ -4010,7 +6966,7 @@
       <c r="A147" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C147" s="1" t="n">
@@ -4208,7 +7164,7 @@
       <c r="A158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="22" t="s">
+      <c r="B158" s="21" t="s">
         <v>127</v>
       </c>
       <c r="C158" s="1" t="n">
@@ -4226,7 +7182,7 @@
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B159" s="22" t="s">
+      <c r="B159" s="21" t="s">
         <v>128</v>
       </c>
       <c r="C159" s="1" t="n">
@@ -4439,7 +7395,7 @@
   </sheetPr>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4674,16 +7630,16 @@
       <c r="C2" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="19" t="n">
         <v>45658</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="19" t="n">
         <v>46053</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="19" t="n">
         <v>45658</v>
       </c>
-      <c r="G2" s="20" t="n">
+      <c r="G2" s="19" t="n">
         <v>46053</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -4709,14 +7665,14 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,14 +9769,14 @@
   <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="11.57"/>
   </cols>
   <sheetData>
@@ -9191,10 +12147,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C138" s="18" t="n">
@@ -9207,10 +12163,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C139" s="18" t="n">
@@ -9223,10 +12179,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C140" s="18" t="n">
@@ -9239,10 +12195,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C141" s="18" t="n">
@@ -9255,10 +12211,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C142" s="18" t="n">
@@ -9353,296 +12309,296 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -9817,8 +12773,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10207,26 +13163,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -10671,28 +13627,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11061,8 +14017,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="16"/>
@@ -11252,24 +14208,24 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="22" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="22" t="n">
         <v>45672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="22" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="22" t="n">
         <v>45701</v>
       </c>
     </row>
@@ -11277,10 +14233,10 @@
       <c r="A4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11288,10 +14244,10 @@
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>134</v>
       </c>
     </row>
@@ -11299,10 +14255,10 @@
       <c r="A6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -11310,10 +14266,10 @@
       <c r="A7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11324,7 +14280,7 @@
       <c r="B8" s="16" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11332,10 +14288,10 @@
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>145</v>
       </c>
     </row>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -70,6 +70,18 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -135,6 +147,160 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
         </r>
       </text>
     </comment>
@@ -381,7 +547,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,7 +569,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -441,7 +613,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,10 +646,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,10 +666,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,12 +678,28 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -543,47 +723,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -631,7 +770,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -761,7 +900,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="A2:E2 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3844,35 +3983,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="A2:E2 H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="5" t="b">
         <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="b">
+        <f aca="false">AND(F2:F832)</f>
         <v>1</v>
       </c>
     </row>
@@ -3880,7 +4024,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -3891,6 +4035,10 @@
       </c>
       <c r="E2" s="6" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="G2" s="1"/>
@@ -3899,7 +4047,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -3910,6 +4058,10 @@
       </c>
       <c r="E3" s="6" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="G3" s="1"/>
@@ -3931,6 +4083,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F4" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,6 +4106,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F5" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,6 +4129,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F6" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,6 +4152,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F7" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,6 +4175,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F8" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,6 +4198,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F9" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4045,6 +4221,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F10" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,6 +4244,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F11" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,6 +4267,10 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F12" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,164 +4290,12 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
+      <c r="F13" s="21" t="n">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4280,7 +4316,7 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2:E2 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4289,165 +4325,165 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="13" t="n">
         <v>45650</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="13" t="n">
         <v>45651</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="13" t="n">
         <v>45652</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="13" t="n">
         <v>45658</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="13" t="n">
         <v>45767</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="13" t="n">
         <v>45778</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
+      <c r="A27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
+      <c r="A28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
+      <c r="A49" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4468,7 +4504,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4479,33 +4515,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="13" t="n">
         <v>45656</v>
       </c>
       <c r="B2" s="7" t="n">
@@ -4514,16 +4550,16 @@
       <c r="C2" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="17" t="n">
         <v>45658</v>
       </c>
-      <c r="E2" s="18" t="n">
+      <c r="E2" s="17" t="n">
         <v>46053</v>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="17" t="n">
         <v>45658</v>
       </c>
-      <c r="G2" s="18" t="n">
+      <c r="G2" s="17" t="n">
         <v>46053</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -4549,35 +4585,34 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:E2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="b">
+      <c r="E1" s="11" t="b">
         <f aca="false">AND(E2:E906)</f>
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="b">
+      <c r="F1" s="11" t="b">
         <f aca="false">AND(F2:F911)</f>
         <v>1</v>
       </c>
@@ -4586,10 +4621,10 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>45748</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -4599,7 +4634,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="6" t="n">
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4608,10 +4643,10 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="12" t="n">
         <v>45749</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>45779</v>
       </c>
       <c r="D3" s="7" t="n">
@@ -4621,7 +4656,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="6" t="n">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4630,10 +4665,10 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>45828</v>
       </c>
       <c r="D4" s="7" t="n">
@@ -4643,7 +4678,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="6" t="n">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4652,10 +4687,10 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="12" t="n">
         <v>45829</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>45874</v>
       </c>
       <c r="D5" s="7" t="n">
@@ -4665,7 +4700,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="6" t="n">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4674,10 +4709,10 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>45931</v>
       </c>
       <c r="D6" s="7" t="n">
@@ -4687,7 +4722,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="6" t="n">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4696,10 +4731,10 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="12" t="n">
         <v>45932</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>45962</v>
       </c>
       <c r="D7" s="7" t="n">
@@ -4709,7 +4744,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="6" t="n">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4718,10 +4753,10 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="12" t="n">
         <v>45698</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>45715</v>
       </c>
       <c r="D8" s="7" t="n">
@@ -4731,7 +4766,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="6" t="n">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4740,10 +4775,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>45717</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>45740</v>
       </c>
       <c r="D9" s="7" t="n">
@@ -4753,7 +4788,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="6" t="n">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4762,10 +4797,10 @@
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <v>45757</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <v>45767</v>
       </c>
       <c r="D10" s="7" t="n">
@@ -4775,7 +4810,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="6" t="n">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4784,10 +4819,10 @@
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>45803</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <v>45822</v>
       </c>
       <c r="D11" s="7" t="n">
@@ -4797,7 +4832,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="6" t="n">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4806,10 +4841,10 @@
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>45833</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <v>45847</v>
       </c>
       <c r="D12" s="7" t="n">
@@ -4819,7 +4854,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="6" t="n">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4828,10 +4863,10 @@
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="12" t="n">
         <v>45833</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="12" t="n">
         <v>45847</v>
       </c>
       <c r="D13" s="7" t="n">
@@ -4841,7 +4876,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="6" t="n">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4850,10 +4885,10 @@
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="12" t="n">
         <v>45848</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="12" t="n">
         <v>46021</v>
       </c>
       <c r="D14" s="7" t="n">
@@ -4863,7 +4898,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="6" t="n">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4872,10 +4907,10 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="12" t="n">
         <v>46022</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="12" t="n">
         <v>46053</v>
       </c>
       <c r="D15" s="7" t="n">
@@ -4885,210 +4920,210 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="6" t="n">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5110,7 +5145,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5118,14 +5153,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="5" t="b">
@@ -5146,11 +5181,11 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="b">
+      <c r="C2" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="b">
+      <c r="D2" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5162,11 +5197,11 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="b">
+      <c r="C3" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="b">
+      <c r="D3" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5178,11 +5213,11 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="17" t="b">
+      <c r="C4" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D4" s="17" t="b">
+      <c r="D4" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5194,11 +5229,11 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="b">
+      <c r="C5" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="b">
+      <c r="D5" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5210,11 +5245,11 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="b">
+      <c r="C6" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="b">
+      <c r="D6" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5226,11 +5261,11 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="b">
+      <c r="C7" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="b">
+      <c r="D7" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5242,11 +5277,11 @@
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17" t="b">
+      <c r="C8" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="b">
+      <c r="D8" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5258,11 +5293,11 @@
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="b">
+      <c r="C9" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="b">
+      <c r="D9" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5274,11 +5309,11 @@
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="17" t="b">
+      <c r="C10" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D10" s="17" t="b">
+      <c r="D10" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5290,11 +5325,11 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17" t="b">
+      <c r="C11" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="b">
+      <c r="D11" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5306,11 +5341,11 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17" t="b">
+      <c r="C12" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="b">
+      <c r="D12" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5322,11 +5357,11 @@
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="17" t="b">
+      <c r="C13" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="b">
+      <c r="D13" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5338,11 +5373,11 @@
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="17" t="b">
+      <c r="C14" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D14" s="17" t="b">
+      <c r="D14" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5354,11 +5389,11 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="17" t="b">
+      <c r="C15" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="D15" s="17" t="b">
+      <c r="D15" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5539,10 +5574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5550,26 +5585,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="16" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="G1" s="5" t="b">
+        <f aca="false">AND(G2:G938)</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="b">
+        <f aca="false">AND(H2:H938)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5579,16 +5623,24 @@
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="12" t="n">
         <v>45748</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5599,16 +5651,24 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="12" t="n">
         <v>45749</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>45779</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5619,16 +5679,24 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>45828</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5639,16 +5707,24 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="12" t="n">
         <v>45829</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>45874</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5659,16 +5735,24 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="12" t="n">
         <v>45658</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>45931</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5679,10 +5763,10 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="12" t="n">
         <v>45932</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>45962</v>
       </c>
       <c r="E7" s="1" t="n">
@@ -5690,6 +5774,14 @@
       </c>
       <c r="F7" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,16 +5791,24 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="12" t="n">
         <v>45698</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>45715</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5719,10 +5819,10 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="12" t="n">
         <v>45717</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>45740</v>
       </c>
       <c r="E9" s="1" t="n">
@@ -5730,6 +5830,14 @@
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5739,10 +5847,10 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="12" t="n">
         <v>45757</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>45767</v>
       </c>
       <c r="E10" s="1" t="n">
@@ -5750,6 +5858,14 @@
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,16 +5875,24 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="12" t="n">
         <v>45803</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>45822</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5779,10 +5903,10 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="12" t="n">
         <v>45833</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>45847</v>
       </c>
       <c r="E12" s="1" t="n">
@@ -5790,6 +5914,14 @@
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5799,10 +5931,10 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="12" t="n">
         <v>45833</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>45847</v>
       </c>
       <c r="E13" s="1" t="n">
@@ -5810,6 +5942,14 @@
       </c>
       <c r="F13" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5819,16 +5959,24 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="12" t="n">
         <v>45848</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>46021</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5839,10 +5987,10 @@
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="12" t="n">
         <v>46022</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <v>46053</v>
       </c>
       <c r="E15" s="1" t="n">
@@ -5851,214 +5999,222 @@
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G15" s="15" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B15) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -6190,6 +6346,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6198,10 +6355,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A2:E2 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6210,31 +6367,40 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="16" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="18" t="e">
+        <f aca="false">AND(G2:G938)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H1" s="18" t="e">
+        <f aca="false">AND(H2:H938)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,6 +6751,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6593,43 +6760,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:E2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="F1" s="5" t="b">
+        <f aca="false">AND(F2:F938)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="20" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -6638,22 +6810,26 @@
       <c r="E2" s="7" t="n">
         <v>2</v>
       </c>
+      <c r="F2" s="21" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -7055,6 +7231,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7063,10 +7240,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A2:E2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7075,51 +7252,60 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="19" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="5" t="e">
+        <f aca="false">AND(G2:G938)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H1" s="5" t="e">
+        <f aca="false">AND(H2:H938)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,6 +7636,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7458,43 +7645,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="F1" s="5" t="b">
+        <f aca="false">AND(F2:F938)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="n">
+      <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="20" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -7503,154 +7695,158 @@
       <c r="E2" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="F2" s="21" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7660,6 +7856,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7671,7 +7868,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="A2:E2 G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7681,35 +7878,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="23" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="23" t="n">
         <v>45672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="23" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="23" t="n">
         <v>45701</v>
       </c>
     </row>
@@ -7717,10 +7914,10 @@
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7728,10 +7925,10 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
     </row>
@@ -7739,10 +7936,10 @@
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7750,10 +7947,10 @@
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7761,10 +7958,10 @@
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7772,10 +7969,10 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7783,10 +7980,10 @@
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="13" t="n">
         <v>45887</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
     </row>
@@ -7794,10 +7991,10 @@
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="13" t="n">
         <v>45916</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
     </row>
@@ -7805,10 +8002,10 @@
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="13" t="n">
         <v>45946</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
     </row>
@@ -7816,152 +8013,152 @@
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="13" t="n">
         <v>45974</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="13" t="n">
         <v>46002</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -167,7 +167,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -180,7 +179,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
         </r>
@@ -203,7 +201,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -216,7 +213,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
         </r>
@@ -239,7 +235,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -262,7 +257,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -275,7 +269,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid task?</t>
         </r>
@@ -298,7 +291,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
         </r>
@@ -386,13 +378,13 @@
     <t xml:space="preserve">Upper</t>
   </si>
   <si>
-    <t xml:space="preserve">January.2025</t>
+    <t xml:space="preserve">Jan.25</t>
   </si>
   <si>
-    <t xml:space="preserve">February.2025</t>
+    <t xml:space="preserve">Feb.25</t>
   </si>
   <si>
-    <t xml:space="preserve">March.2025</t>
+    <t xml:space="preserve">Mar.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-02-14</t>
@@ -401,7 +393,7 @@
     <t xml:space="preserve">2025-03-16</t>
   </si>
   <si>
-    <t xml:space="preserve">April.2025</t>
+    <t xml:space="preserve">Apr.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-03-17</t>
@@ -410,7 +402,7 @@
     <t xml:space="preserve">2025-04-14</t>
   </si>
   <si>
-    <t xml:space="preserve">May.2025</t>
+    <t xml:space="preserve">May.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-04-15</t>
@@ -419,7 +411,7 @@
     <t xml:space="preserve">2025-05-18</t>
   </si>
   <si>
-    <t xml:space="preserve">June.2025</t>
+    <t xml:space="preserve">Jun.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-05-19</t>
@@ -428,13 +420,13 @@
     <t xml:space="preserve">2025-06-18</t>
   </si>
   <si>
-    <t xml:space="preserve">July.2025</t>
+    <t xml:space="preserve">Jul.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-07-17</t>
   </si>
   <si>
-    <t xml:space="preserve">August.2025</t>
+    <t xml:space="preserve">Aug.25</t>
   </si>
   <si>
     <t xml:space="preserve">2025-07-18</t>
@@ -443,16 +435,16 @@
     <t xml:space="preserve">2025-08-17</t>
   </si>
   <si>
-    <t xml:space="preserve">September.2025</t>
+    <t xml:space="preserve">Sep.25</t>
   </si>
   <si>
-    <t xml:space="preserve">October.2025</t>
+    <t xml:space="preserve">Oct.25</t>
   </si>
   <si>
-    <t xml:space="preserve">November.2025</t>
+    <t xml:space="preserve">Nov.25</t>
   </si>
   <si>
-    <t xml:space="preserve">December.2025</t>
+    <t xml:space="preserve">Dec.25</t>
   </si>
   <si>
     <t xml:space="preserve">Period</t>
@@ -613,7 +605,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,7 +670,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,24 +682,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -899,8 +887,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="A2:E2 E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3985,17 +3973,16 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="A2:E2 H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +4011,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -4037,7 +4024,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="b">
+      <c r="F2" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4047,7 +4034,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4060,7 +4047,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="n">
+      <c r="F3" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4070,7 +4057,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4083,7 +4070,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="21" t="n">
+      <c r="F4" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4093,7 +4080,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -4106,7 +4093,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="21" t="n">
+      <c r="F5" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4116,7 +4103,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -4129,7 +4116,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="F6" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4139,7 +4126,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -4152,7 +4139,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="n">
+      <c r="F7" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4162,7 +4149,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -4175,7 +4162,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="21" t="n">
+      <c r="F8" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4185,7 +4172,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -4198,7 +4185,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="F9" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4208,7 +4195,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -4221,7 +4208,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="F10" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4231,7 +4218,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -4244,7 +4231,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="21" t="n">
+      <c r="F11" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4254,7 +4241,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -4267,7 +4254,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="21" t="n">
+      <c r="F12" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4277,7 +4264,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -4290,7 +4277,7 @@
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="21" t="n">
+      <c r="F13" s="6" t="b">
         <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -4315,8 +4302,8 @@
   </sheetPr>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A2:E2 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4503,8 +4490,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4584,8 +4571,8 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:E2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5144,8 +5131,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="A2:E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5576,8 +5563,8 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6357,8 +6344,8 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A2:E2 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6762,15 +6749,15 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A2:E2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6801,7 +6788,7 @@
       <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="19" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -6810,7 +6797,7 @@
       <c r="E2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="21" t="b">
+      <c r="F2" s="6" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -7242,8 +7229,8 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="A2:E2 H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7252,7 +7239,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,15 +7634,15 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7673,7 @@
       <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="19" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -7695,7 +7682,7 @@
       <c r="E2" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="21" t="b">
+      <c r="F2" s="6" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
@@ -7867,8 +7854,8 @@
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="1" sqref="A2:E2 G29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7889,95 +7876,95 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="21" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="21" t="n">
         <v>45672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="21" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="21" t="n">
         <v>45701</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="13" t="n">
@@ -7988,7 +7975,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="13" t="n">
@@ -7999,7 +7986,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="13" t="n">
@@ -8010,7 +7997,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="22" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="13" t="n">

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -79,6 +79,29 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -301,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -477,7 +500,22 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">highs</t>
+    <t xml:space="preserve">Last day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is T:start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is T:end OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is H:start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is H:end OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gcg</t>
   </si>
 </sst>
 </file>
@@ -539,7 +577,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,7 +587,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
@@ -568,6 +606,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,7 +649,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,6 +746,26 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +795,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -3973,7 +4037,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4300,50 +4364,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="B1" s="11" t="b">
+        <f aca="false">AND(B2:B908)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
         <v>45650</v>
       </c>
+      <c r="B2" s="6" t="b">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>45651</v>
       </c>
+      <c r="B3" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>45652</v>
       </c>
+      <c r="B4" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>45658</v>
       </c>
+      <c r="B5" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(A5),misc!$A$2&lt;=A5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>45767</v>
       </c>
+      <c r="B6" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(A6),misc!$A$2&lt;=A6)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>45778</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <f aca="false">AND(ISNUMBER(A7),misc!$A$2&lt;=A7)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,6 +4573,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4488,10 +4582,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4526,6 +4620,21 @@
       <c r="H1" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="I1" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
@@ -4550,7 +4659,27 @@
         <v>46053</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
+        <v>46053</v>
+      </c>
+      <c r="J2" s="27" t="n">
+        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="28" t="b">
+        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -99,7 +99,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Are dates OK?</t>
         </r>
@@ -211,40 +210,6 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -260,40 +225,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid task?</t>
         </r>
       </text>
     </comment>
@@ -577,7 +508,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,13 +530,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF4000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -649,7 +574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -722,10 +647,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,23 +667,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,7 +739,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -951,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4044,7 +3961,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
   </cols>
@@ -4075,7 +3992,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -4098,7 +4015,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4121,7 +4038,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4144,7 +4061,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -4167,7 +4084,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -4190,7 +4107,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -4213,7 +4130,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -4236,7 +4153,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -4259,7 +4176,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -4282,7 +4199,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -4305,7 +4222,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -4328,7 +4245,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -4364,16 +4281,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,63 +4298,45 @@
         <v>49</v>
       </c>
       <c r="B1" s="11" t="b">
-        <f aca="false">AND(B2:B908)</f>
-        <v>0</v>
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B2" s="6" t="b">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
-        <v>45651</v>
+        <v>45767</v>
       </c>
       <c r="B3" s="6" t="n">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>45652</v>
+        <v>45778</v>
       </c>
       <c r="B4" s="6" t="n">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <f aca="false">AND(ISNUMBER(A5),misc!$A$2&lt;=A5)</f>
-        <v>1</v>
-      </c>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <f aca="false">AND(ISNUMBER(A6),misc!$A$2&lt;=A6)</f>
-        <v>1</v>
-      </c>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <f aca="false">AND(ISNUMBER(A7),misc!$A$2&lt;=A7)</f>
-        <v>1</v>
-      </c>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
@@ -4556,15 +4455,9 @@
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4585,7 +4478,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4620,19 +4513,19 @@
       <c r="H1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4661,23 +4554,23 @@
       <c r="H2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="26" t="n">
+      <c r="I2" s="24" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="27" t="n">
+      <c r="J2" s="25" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="28" t="b">
+      <c r="K2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="28" t="b">
+      <c r="L2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="28" t="b">
+      <c r="M2" s="26" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -6471,7 +6364,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
@@ -6483,7 +6376,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="16" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,14 +6396,6 @@
       </c>
       <c r="F1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="18" t="e">
-        <f aca="false">AND(G2:G938)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H1" s="18" t="e">
-        <f aca="false">AND(H2:H938)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,7 +6751,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6917,7 +6800,7 @@
       <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="18" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -7356,10 +7239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7368,7 +7251,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,14 +7271,6 @@
       </c>
       <c r="F1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="5" t="e">
-        <f aca="false">AND(G2:G938)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H1" s="5" t="e">
-        <f aca="false">AND(H2:H938)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,7 +7626,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7802,7 +7675,7 @@
       <c r="B2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="18" t="n">
         <v>46023</v>
       </c>
       <c r="D2" s="7" t="n">
@@ -8005,95 +7878,95 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21" t="n">
+      <c r="B2" s="20" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="20" t="n">
         <v>45672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21" t="n">
+      <c r="B3" s="20" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="20" t="n">
         <v>45701</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="13" t="n">
@@ -8104,7 +7977,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="13" t="n">
@@ -8115,7 +7988,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="13" t="n">
@@ -8126,7 +7999,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="13" t="n">

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -210,28 +210,6 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
@@ -255,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -692,6 +670,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD8CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -868,7 +863,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4594,7 +4589,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5586,7 +5581,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5630,19 +5625,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="12" t="n">
-        <v>45658</v>
+        <v>45749</v>
       </c>
       <c r="D2" s="12" t="n">
-        <v>45748</v>
+        <v>45779</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
@@ -5658,25 +5653,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="n">
-        <v>45749</v>
+        <v>45658</v>
       </c>
       <c r="D3" s="12" t="n">
-        <v>45779</v>
+        <v>45748</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="n">
+      <c r="H3" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5686,25 +5681,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45658</v>
+        <v>45829</v>
       </c>
       <c r="D4" s="12" t="n">
-        <v>45828</v>
+        <v>45874</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5714,25 +5709,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>45829</v>
+        <v>45658</v>
       </c>
       <c r="D5" s="12" t="n">
-        <v>45874</v>
+        <v>45828</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5742,25 +5737,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="12" t="n">
-        <v>45658</v>
+        <v>45932</v>
       </c>
       <c r="D6" s="12" t="n">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5770,25 +5765,25 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="12" t="n">
-        <v>45932</v>
+        <v>45658</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G7" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5807,16 +5802,16 @@
         <v>45715</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5835,16 +5830,16 @@
         <v>45740</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G9" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5863,16 +5858,16 @@
         <v>45767</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5891,16 +5886,16 @@
         <v>45822</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5919,16 +5914,16 @@
         <v>45847</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5947,16 +5942,16 @@
         <v>45847</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5966,25 +5961,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="n">
-        <v>45848</v>
+        <v>46022</v>
       </c>
       <c r="D14" s="12" t="n">
-        <v>46021</v>
+        <v>46053</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
@@ -5994,25 +5989,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="12" t="n">
-        <v>46022</v>
+        <v>45848</v>
       </c>
       <c r="D15" s="12" t="n">
-        <v>46053</v>
+        <v>46021</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="15" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="15" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$906, B15) &gt; 0</f>
         <v>1</v>
       </c>
@@ -6759,17 +6754,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,31 +6782,10 @@
       <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F938)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="C2" s="18" t="n">
-        <v>46023</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="17"/>
@@ -7230,7 +7203,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7636,8 +7608,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7682,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -319,52 +319,19 @@
     <t xml:space="preserve">Mar.25</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apr.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-14</t>
   </si>
   <si>
     <t xml:space="preserve">May.25</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jun.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-18</t>
   </si>
   <si>
     <t xml:space="preserve">Jul.25</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-07-17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aug.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-08-17</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.25</t>
@@ -437,7 +404,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -482,6 +449,13 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -552,7 +526,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -629,12 +603,24 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -670,23 +656,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD8CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -3956,7 +3925,7 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
   </cols>
@@ -3966,7 +3935,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>23</v>
@@ -3987,7 +3956,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -4010,7 +3979,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4033,7 +4002,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4056,8 +4025,8 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>30</v>
+      <c r="B5" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0</v>
@@ -4079,8 +4048,8 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>33</v>
+      <c r="B6" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0</v>
@@ -4102,8 +4071,8 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>36</v>
+      <c r="B7" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0</v>
@@ -4125,8 +4094,8 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>39</v>
+      <c r="B8" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0</v>
@@ -4148,8 +4117,8 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>41</v>
+      <c r="B9" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0</v>
@@ -4171,8 +4140,8 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>44</v>
+      <c r="B10" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0</v>
@@ -4194,8 +4163,8 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>45</v>
+      <c r="B11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0</v>
@@ -4217,8 +4186,8 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>46</v>
+      <c r="B12" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0</v>
@@ -4240,8 +4209,8 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>47</v>
+      <c r="B13" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0</v>
@@ -4290,7 +4259,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B1" s="11" t="b">
         <f aca="false">AND(B2:B905)</f>
@@ -4485,43 +4454,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="M1" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,25 +4516,25 @@
         <v>46053</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="24" t="n">
+        <v>52</v>
+      </c>
+      <c r="I2" s="27" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="25" t="n">
+      <c r="J2" s="28" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="b">
+      <c r="K2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="26" t="b">
+      <c r="L2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="26" t="b">
+      <c r="M2" s="29" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -7608,7 +7577,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -7826,16 +7795,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7848,98 +7818,134 @@
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="20" t="b">
+        <f aca="false">AND(D2:D900)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="20" t="n">
+      <c r="B2" s="22" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="22" t="n">
         <v>45672</v>
       </c>
+      <c r="D2" s="23" t="b">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="22" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="22" t="n">
         <v>45701</v>
       </c>
+      <c r="D3" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="18" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>45732</v>
+      </c>
+      <c r="D4" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="B5" s="18" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>45761</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="B6" s="18" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>45795</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B7" s="18" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>45826</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
+      <c r="C8" s="18" t="n">
+        <v>45855</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>43</v>
+      <c r="A9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>45856</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <v>45886</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>44</v>
+      <c r="A10" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>45887</v>
@@ -7947,10 +7953,14 @@
       <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
+      <c r="D10" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>45</v>
+      <c r="A11" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>45916</v>
@@ -7958,10 +7968,14 @@
       <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
+      <c r="D11" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>46</v>
+      <c r="A12" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>45946</v>
@@ -7969,16 +7983,24 @@
       <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
+      <c r="D12" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>47</v>
+      <c r="A13" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>45974</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>46002</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -247,10 +247,10 @@
     <t xml:space="preserve">the 1st unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
+    <t xml:space="preserve">Start</t>
   </si>
   <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -526,7 +526,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,11 +603,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -617,10 +613,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3918,14 +3910,14 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
   </cols>
@@ -3956,7 +3948,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
@@ -3979,7 +3971,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
@@ -4002,7 +3994,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="n">
@@ -4025,7 +4017,7 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="n">
@@ -4048,7 +4040,7 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="1" t="n">
@@ -4071,7 +4063,7 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="1" t="n">
@@ -4094,7 +4086,7 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="1" t="n">
@@ -4117,7 +4109,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="1" t="n">
@@ -4140,7 +4132,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="1" t="n">
@@ -4163,7 +4155,7 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -4186,7 +4178,7 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="n">
@@ -4209,7 +4201,7 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="1" t="n">
@@ -4477,19 +4469,19 @@
       <c r="H1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4518,23 +4510,23 @@
       <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="27" t="n">
+      <c r="I2" s="25" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="28" t="n">
+      <c r="J2" s="26" t="n">
         <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="29" t="b">
+      <c r="K2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="29" t="b">
+      <c r="L2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="29" t="b">
+      <c r="M2" s="27" t="b">
         <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
         <v>1</v>
       </c>
@@ -4558,7 +4550,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5550,7 +5542,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6331,7 +6323,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6726,7 +6718,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7183,7 +7175,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7578,7 +7570,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7797,15 +7789,15 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="19" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,43 +7810,43 @@
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="b">
+      <c r="D1" s="19" t="b">
         <f aca="false">AND(D2:D900)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="21" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="22" t="n">
+      <c r="C2" s="21" t="n">
         <v>45672</v>
       </c>
-      <c r="D2" s="23" t="b">
+      <c r="D2" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2, C2 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="22" t="n">
+      <c r="B3" s="21" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="22" t="n">
+      <c r="C3" s="21" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="18" t="n">
@@ -7863,13 +7855,13 @@
       <c r="C4" s="18" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="18" t="n">
@@ -7878,13 +7870,13 @@
       <c r="C5" s="18" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="18" t="n">
@@ -7893,13 +7885,13 @@
       <c r="C6" s="18" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="18" t="n">
@@ -7908,13 +7900,13 @@
       <c r="C7" s="18" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="13" t="n">
@@ -7923,13 +7915,13 @@
       <c r="C8" s="18" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="18" t="n">
@@ -7938,13 +7930,13 @@
       <c r="C9" s="18" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="13" t="n">
@@ -7953,13 +7945,13 @@
       <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="13" t="n">
@@ -7968,13 +7960,13 @@
       <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="13" t="n">
@@ -7983,13 +7975,13 @@
       <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="13" t="n">
@@ -7998,7 +7990,7 @@
       <c r="C13" s="13" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="16" t="n">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -233,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -358,40 +364,112 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:start OK?</t>
+    <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">Is T:end OK?</t>
+    <t xml:space="preserve">Width</t>
   </si>
   <si>
-    <t xml:space="preserve">Is H:start OK?</t>
+    <t xml:space="preserve">Height</t>
   </si>
   <si>
-    <t xml:space="preserve">Is H:end OK?</t>
+    <t xml:space="preserve">Dpi</t>
   </si>
   <si>
-    <t xml:space="preserve">gcg</t>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
@@ -404,7 +482,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,8 +537,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +574,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD7D7"/>
         <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -628,10 +719,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -699,7 +790,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -824,7 +915,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -3910,7 +4001,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4239,7 +4330,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4262,7 +4353,7 @@
       <c r="A2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6" t="b">
         <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
         <v>1</v>
       </c>
@@ -4271,7 +4362,7 @@
       <c r="A3" s="13" t="n">
         <v>45767</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6" t="b">
         <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
         <v>1</v>
       </c>
@@ -4280,7 +4371,7 @@
       <c r="A4" s="13" t="n">
         <v>45778</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6" t="b">
         <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
         <v>1</v>
       </c>
@@ -4431,17 +4522,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4454,35 +4545,8 @@
       <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,43 +4556,551 @@
       <c r="B2" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="17" t="n">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="17" t="n">
-        <v>46053</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <v>45658</v>
-      </c>
-      <c r="G2" s="17" t="n">
-        <v>46053</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="25" t="n">
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="25" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
         <v>46053</v>
       </c>
-      <c r="J2" s="26" t="n">
-        <f aca="false">AND(ISNUMBER(D2), D2&gt;A2)</f>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&lt;=I2)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), F2&gt;A2)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(G2), G2&lt;=I2)</f>
-        <v>1</v>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>46053</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +5121,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4599,7 +5171,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6" t="b">
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4621,7 +5193,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="6" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4643,7 +5215,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="6" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4665,7 +5237,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4687,7 +5259,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="6" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4709,7 +5281,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4731,7 +5303,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="6" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4753,7 +5325,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4775,7 +5347,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="6" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4797,7 +5369,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6" t="b">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4819,7 +5391,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="6" t="b">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4841,7 +5413,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6" t="b">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4863,7 +5435,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="6" t="b">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -4885,7 +5457,7 @@
         <f aca="false">COUNTIF(links!$B$1:$B$873, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6" t="b">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
@@ -5109,7 +5681,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5541,7 +6113,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6322,7 +6894,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6717,7 +7289,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7174,7 +7746,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7569,7 +8141,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7789,7 +8361,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7840,7 +8412,7 @@
       <c r="C3" s="21" t="n">
         <v>45701</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3, C3 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7855,7 +8427,7 @@
       <c r="C4" s="18" t="n">
         <v>45732</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4, C4 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7870,7 +8442,7 @@
       <c r="C5" s="18" t="n">
         <v>45761</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5, C5 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7885,7 +8457,7 @@
       <c r="C6" s="18" t="n">
         <v>45795</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6, C6 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7900,7 +8472,7 @@
       <c r="C7" s="18" t="n">
         <v>45826</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7, C7 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7915,7 +8487,7 @@
       <c r="C8" s="18" t="n">
         <v>45855</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8, C8 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7930,7 +8502,7 @@
       <c r="C9" s="18" t="n">
         <v>45886</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9, C9 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7945,7 +8517,7 @@
       <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10, C10 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7960,7 +8532,7 @@
       <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11, C11 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7975,7 +8547,7 @@
       <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12, C12 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>
@@ -7990,7 +8562,7 @@
       <c r="C13" s="13" t="n">
         <v>46002</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="16" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13, C13 &gt; misc!$A$2)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -4524,7 +4524,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4777,8 +4777,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4830,7 +4830,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.6</v>
@@ -4959,7 +4960,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5030,7 +5031,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -4583,7 +4583,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4642,7 +4642,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>52</v>
@@ -4680,8 +4681,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4739,7 +4740,8 @@
         <v>45658</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>46053</v>
+        <f aca="false">E2+20</f>
+        <v>45678</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>55</v>
@@ -4777,7 +4779,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -915,7 +915,7 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +4001,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4330,7 +4330,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4524,7 +4524,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4582,7 +4582,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4681,7 +4681,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4779,7 +4779,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -4863,16 +4863,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,25 +4889,13 @@
         <v>46</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,28 +4908,14 @@
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <v>46053</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4936,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5033,7 +5007,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5124,7 +5098,7 @@
   </sheetPr>
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -5684,7 +5658,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6116,7 +6090,7 @@
   </sheetPr>
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -6897,7 +6871,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7292,7 +7266,7 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7749,7 +7723,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8144,7 +8118,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8364,7 +8338,7 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -470,6 +471,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -4866,7 +4870,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5078,6 +5082,65 @@
       </c>
       <c r="J2" s="7" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Does Expert exist?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -217,7 +159,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -239,8 +181,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Does Expert exist?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -951,7 +949,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="b">
-        <f aca="false">COUNTIF(links!$A$1:$A$873, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
@@ -4003,529 +4001,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E8" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E10" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="6" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="11" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B3" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B4" s="6" t="b">
-        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -4564,7 +4039,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="25" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C804))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C804))</f>
         <v>46053</v>
       </c>
     </row>
@@ -4579,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4678,7 +4153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4776,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4862,14 +4337,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -4933,7 +4408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5004,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5095,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5208,7 +4683,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F2" s="6" t="b">
@@ -5230,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F3" s="6" t="b">
@@ -5252,7 +4727,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F4" s="6" t="b">
@@ -5274,7 +4749,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F5" s="6" t="b">
@@ -5296,7 +4771,7 @@
         <v>130</v>
       </c>
       <c r="E6" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F6" s="6" t="b">
@@ -5318,7 +4793,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F7" s="6" t="b">
@@ -5340,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F8" s="6" t="b">
@@ -5362,7 +4837,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F9" s="6" t="b">
@@ -5384,7 +4859,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F10" s="6" t="b">
@@ -5406,7 +4881,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F11" s="6" t="b">
@@ -5428,7 +4903,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F12" s="6" t="b">
@@ -5450,7 +4925,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F13" s="6" t="b">
@@ -5472,7 +4947,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F14" s="6" t="b">
@@ -5494,7 +4969,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="6" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$873, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$873, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F15" s="6" t="b">
@@ -5759,11 +5234,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5775,11 +5250,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5791,11 +5266,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5807,11 +5282,11 @@
         <v>10</v>
       </c>
       <c r="C5" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D5" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5823,11 +5298,11 @@
         <v>11</v>
       </c>
       <c r="C6" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D6" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5839,11 +5314,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D7" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5855,11 +5330,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D8" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5871,11 +5346,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D9" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5887,11 +5362,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D10" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B10) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5903,11 +5378,11 @@
         <v>13</v>
       </c>
       <c r="C11" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D11" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5919,11 +5394,11 @@
         <v>14</v>
       </c>
       <c r="C12" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D12" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B12) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5935,11 +5410,11 @@
         <v>15</v>
       </c>
       <c r="C13" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D13" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B13) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5951,11 +5426,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D14" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -5967,11 +5442,11 @@
         <v>17</v>
       </c>
       <c r="C15" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D15" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B15) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B15) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6213,11 +5688,11 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6241,11 +5716,11 @@
         <v>0.75</v>
       </c>
       <c r="G3" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6269,11 +5744,11 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6297,11 +5772,11 @@
         <v>0.75</v>
       </c>
       <c r="G5" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6325,11 +5800,11 @@
         <v>1.25</v>
       </c>
       <c r="G6" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6353,11 +5828,11 @@
         <v>1.25</v>
       </c>
       <c r="G7" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6381,11 +5856,11 @@
         <v>0.75</v>
       </c>
       <c r="G8" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H8" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B8) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6409,11 +5884,11 @@
         <v>1.25</v>
       </c>
       <c r="G9" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H9" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B9) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6437,11 +5912,11 @@
         <v>1.5</v>
       </c>
       <c r="G10" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A10) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A10) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H10" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B10) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B10) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6465,11 +5940,11 @@
         <v>0.75</v>
       </c>
       <c r="G11" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A11) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A11) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H11" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B11) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B11) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6493,11 +5968,11 @@
         <v>1.5</v>
       </c>
       <c r="G12" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A12) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A12) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H12" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B12) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B12) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6521,11 +5996,11 @@
         <v>1.5</v>
       </c>
       <c r="G13" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H13" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B13) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B13) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6549,11 +6024,11 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A14) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A14) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H14" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B14) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B14) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6577,11 +6052,11 @@
         <v>0.75</v>
       </c>
       <c r="G15" s="15" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A15) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A15) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H15" s="15" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$906, B15) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$906, B15) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -6928,401 +6403,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7779,409 +6859,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="7" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8230,7 +6915,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="6" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$987, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -8394,7 +7079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8756,4 +7441,527 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="6" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="6" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$987, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="6" t="b">
+        <f aca="false">AND(ISNUMBER(A2),misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="6" t="b">
+        <f aca="false">AND(ISNUMBER(A3),misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B4" s="6" t="b">
+        <f aca="false">AND(ISNUMBER(A4),misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -4577,7 +4577,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6866,7 +6866,7 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -366,10 +366,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">Last day</t>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubday</t>
   </si>
   <si>
     <t xml:space="preserve">gcg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -918,7 +924,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="1" sqref="D1:D2 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4001,17 +4007,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4024,8 +4030,11 @@
       <c r="C1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,9 +4045,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="25" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="25" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C804))</f>
         <v>46053</v>
       </c>
@@ -4062,7 +4074,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4077,13 +4089,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -4092,19 +4104,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4125,10 +4137,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -4138,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4161,7 +4173,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4172,16 +4184,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -4190,19 +4202,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,10 +4235,10 @@
         <v>45678</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.3</v>
@@ -4236,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4259,7 +4271,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4270,16 +4282,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -4288,13 +4300,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4334,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -4345,7 +4357,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="D1:D2 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4356,25 +4368,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4400,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>0.9</v>
@@ -4416,7 +4428,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4427,25 +4439,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,10 +4471,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>4</v>
@@ -4487,7 +4499,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4500,34 +4512,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,16 +4553,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>0.5</v>
@@ -4577,8 +4589,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4589,19 +4601,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,7 +4649,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5197,7 +5209,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,7 +5641,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6410,7 +6422,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6867,7 +6879,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7087,7 +7099,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7451,7 +7463,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="D1:D2 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7780,7 +7792,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -378,6 +379,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -387,6 +391,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -394,12 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -625,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -731,10 +735,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -924,7 +924,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="1" sqref="D1:D2 E33"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4009,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4071,31 +4071,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>4</v>
@@ -4103,53 +4102,36 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="13" t="n">
+      <c r="E2" s="17" t="n">
+        <f aca="false">misc!A2+1</f>
+        <v>45657</v>
+      </c>
+      <c r="F2" s="17" t="n">
         <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="27" t="b">
+        <v>45677</v>
+      </c>
+      <c r="G2" s="6" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="H2" s="6" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -4170,86 +4152,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4268,74 +4206,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <f aca="false">E2+20</f>
-        <v>45678</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="27" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -4354,16 +4259,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="D1:D2 E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,41 +4276,11 @@
         <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4425,59 +4300,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="7" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -4496,79 +4353,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
+      <c r="D2" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4587,46 +4406,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="7" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4649,7 +4523,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5209,7 +5083,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5641,7 +5515,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6422,7 +6296,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6879,7 +6753,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7099,7 +6973,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7463,7 +7337,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="D1:D2 E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7792,7 +7666,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
+++ b/ampl-data-input-excel/10-PM.Daniel/10-PM.Daniel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -367,7 +367,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">ubday</t>
@@ -376,7 +376,7 @@
     <t xml:space="preserve">gcg</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -924,7 +924,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="1" sqref="D1:D2 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4009,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4074,7 +4074,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4155,7 +4155,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4209,7 +4209,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4261,8 +4261,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4303,7 +4303,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4409,7 +4409,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4482,7 +4482,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4523,7 +4523,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5083,7 +5083,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5515,7 +5515,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6296,7 +6296,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6753,7 +6753,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6973,7 +6973,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7337,7 +7337,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="D1:D2 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7666,7 +7666,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="1" sqref="D1:D2 I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
